--- a/[게임프로젝트]개발일지(누적).xlsx
+++ b/[게임프로젝트]개발일지(누적).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\안준혁\Michael\01 SSHS\Grade1_2022\컴과 2\GameProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFE081-4C58-4D7D-A9B3-0BAF193951C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B1EC4-A4F2-4FC3-95A1-F71D569473E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3948" yWindow="0" windowWidth="17280" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>기타사항</t>
   </si>
@@ -158,6 +158,47 @@
 - 로그인 시 화면 구현(아이디 및 랭킹 표시, 게임 기록 보기, 시작버튼)
 - 지도 위 이동 구현
 - 게임 저장 구현 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인 시 화면 부분적 구현(랭킹 제외)
+2. 같은 파일에 있는 게임의 서로 다른 화면들을 각각 함수로써 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 계획
+(안준혁)
+- 화면전환 구현 완료
+- 지도 위 이동 구현
+- 만장굴 게임 이미지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임의 메인화면, 메뉴, 지도 부분을 구현한 코드를 각각 서로 다른 함수로 만들어 재귀함수의 꼴로 게임 중에도 장면이 바뀔 수 있도록 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 별찾기 배경 이미지 제작
+2. 지도상에서 표시할 캐릭터 이미지 제작
+3. 별 깜빡이는 애니메이션 이미지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번주 계획
+(안준혁) 
+- 게임 스테이지 간 전환 구현
+- 지도상 이동 구현
+- 별찾기 레벨 제작
+(고민재)
+- 주상절리, 만장굴 레벨 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,24 +271,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,151 +513,167 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="37" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="12.6640625" style="3"/>
+    <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="124.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="124.8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
